--- a/sofaplayer/Ligue_1/Angers_stats.xlsx
+++ b/sofaplayer/Ligue_1/Angers_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>891505</v>
       </c>
       <c r="E2" t="n">
-        <v>6.35</v>
+        <v>6.3333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8306</v>
+        <v>0.9203</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
         <v>2</v>
@@ -1101,172 +1101,172 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.06557604</v>
+        <v>0.08509074</v>
       </c>
       <c r="AB2" t="n">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AF2" t="n">
-        <v>73.913043478261</v>
+        <v>71.428571428571</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AH2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>9</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR2" t="n">
         <v>8</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
         <v>4</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>3</v>
       </c>
       <c r="AZ2" t="n">
         <v>50</v>
       </c>
       <c r="BA2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BB2" t="n">
-        <v>35</v>
+        <v>35.714285714286</v>
       </c>
       <c r="BC2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>22</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>19</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>10</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>6</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
         <v>5</v>
       </c>
-      <c r="BD2" t="n">
-        <v>45.454545454545</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>22.222222222222</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>12</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>2</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>6</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>5</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>2</v>
-      </c>
       <c r="CC2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CD2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
@@ -1308,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CS2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CT2" t="n">
         <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="CV2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="DG2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>1392829</v>
       </c>
       <c r="E3" t="n">
-        <v>6.6928571428571</v>
+        <v>6.6866666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
         <v>13</v>
       </c>
       <c r="H3" t="n">
-        <v>984</v>
+        <v>1007</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>1.3779</v>
       </c>
       <c r="L3" t="n">
-        <v>984</v>
+        <v>1007</v>
       </c>
       <c r="M3" t="n">
         <v>18</v>
@@ -1457,10 +1457,10 @@
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.28930265</v>
+        <v>1.30966185</v>
       </c>
       <c r="AB3" t="n">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="AC3" t="n">
         <v>3</v>
@@ -1469,22 +1469,22 @@
         <v>16</v>
       </c>
       <c r="AE3" t="n">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="AF3" t="n">
-        <v>72.590361445783</v>
+        <v>72.941176470588</v>
       </c>
       <c r="AG3" t="n">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="AH3" t="n">
         <v>82</v>
       </c>
       <c r="AI3" t="n">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AJ3" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AK3" t="n">
         <v>8</v>
@@ -1508,13 +1508,13 @@
         <v>9</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AS3" t="n">
         <v>8</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU3" t="n">
         <v>6</v>
@@ -1529,34 +1529,34 @@
         <v>0</v>
       </c>
       <c r="AY3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>33.846153846154</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>35.172413793103</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>49</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>36.296296296296</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF3" t="n">
         <v>20</v>
       </c>
-      <c r="AZ3" t="n">
-        <v>32.786885245902</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>48</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>35.036496350365</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>47</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>36.71875</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>11.111111111111</v>
-      </c>
       <c r="BG3" t="n">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="BH3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI3" t="n">
         <v>13</v>
@@ -1583,16 +1583,16 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>93.7</v>
+        <v>100.3</v>
       </c>
       <c r="BR3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS3" t="n">
         <v>2</v>
       </c>
       <c r="BT3" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>7</v>
       </c>
       <c r="CB3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CC3" t="n">
         <v>23</v>
@@ -1667,13 +1667,13 @@
         <v>16</v>
       </c>
       <c r="CS3" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="CT3" t="n">
         <v>43</v>
       </c>
       <c r="CU3" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="CV3" t="n">
         <v>8</v>
@@ -1709,7 +1709,7 @@
         <v>102</v>
       </c>
       <c r="DG3" t="n">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>2137784</v>
       </c>
       <c r="E5" t="n">
-        <v>6.5210526315789</v>
+        <v>6.515</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
         <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>826</v>
+        <v>841</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>3.9162</v>
       </c>
       <c r="L5" t="n">
-        <v>275.33333333333</v>
+        <v>280.33333333333</v>
       </c>
       <c r="M5" t="n">
         <v>16</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.39909701</v>
+        <v>0.40192712</v>
       </c>
       <c r="AB5" t="n">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -2181,22 +2181,22 @@
         <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AF5" t="n">
-        <v>72.5</v>
+        <v>73.170731707317</v>
       </c>
       <c r="AG5" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AH5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AI5" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AJ5" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AK5" t="n">
         <v>1</v>
@@ -2217,10 +2217,10 @@
         <v>5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS5" t="n">
         <v>1</v>
@@ -2244,19 +2244,19 @@
         <v>3</v>
       </c>
       <c r="AZ5" t="n">
-        <v>17.647058823529</v>
+        <v>16.666666666667</v>
       </c>
       <c r="BA5" t="n">
         <v>47</v>
       </c>
       <c r="BB5" t="n">
-        <v>38.211382113821</v>
+        <v>37.6</v>
       </c>
       <c r="BC5" t="n">
         <v>25</v>
       </c>
       <c r="BD5" t="n">
-        <v>36.764705882353</v>
+        <v>35.714285714286</v>
       </c>
       <c r="BE5" t="n">
         <v>22</v>
@@ -2265,7 +2265,7 @@
         <v>40</v>
       </c>
       <c r="BG5" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="BH5" t="n">
         <v>23</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>123.9</v>
+        <v>130.3</v>
       </c>
       <c r="BR5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS5" t="n">
         <v>3</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CC5" t="n">
         <v>0</v>
@@ -2379,13 +2379,13 @@
         <v>9</v>
       </c>
       <c r="CS5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CT5" t="n">
         <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="CV5" t="n">
         <v>33</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="DG5" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>2142283</v>
       </c>
       <c r="E6" t="n">
-        <v>6.39</v>
+        <v>6.4</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2525,10 +2525,10 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.02734847</v>
+        <v>0.02889971</v>
       </c>
       <c r="AB6" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -2537,22 +2537,22 @@
         <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AF6" t="n">
-        <v>84.31372549019601</v>
+        <v>82.45614035087701</v>
       </c>
       <c r="AG6" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
         <v>1</v>
@@ -2597,22 +2597,22 @@
         <v>0</v>
       </c>
       <c r="AY6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>12.5</v>
+        <v>22.222222222222</v>
       </c>
       <c r="BA6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB6" t="n">
-        <v>34.210526315789</v>
+        <v>35.897435897436</v>
       </c>
       <c r="BC6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD6" t="n">
-        <v>28.571428571429</v>
+        <v>31.034482758621</v>
       </c>
       <c r="BE6" t="n">
         <v>5</v>
@@ -2621,7 +2621,7 @@
         <v>50</v>
       </c>
       <c r="BG6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BH6" t="n">
         <v>5</v>
@@ -2651,16 +2651,16 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>63.9</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="BR6" t="n">
+        <v>11</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" t="n">
         <v>10</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>8</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="CS6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CT6" t="n">
         <v>3</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="DG6" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>580642</v>
       </c>
       <c r="E7" t="n">
-        <v>6.865</v>
+        <v>6.8714285714286</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" t="n">
-        <v>1753</v>
+        <v>1843</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2881,40 +2881,40 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.31513044</v>
+        <v>0.32971954</v>
       </c>
       <c r="AB7" t="n">
-        <v>1099</v>
+        <v>1161</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>714</v>
+        <v>763</v>
       </c>
       <c r="AF7" t="n">
-        <v>86.861313868613</v>
+        <v>87.2</v>
       </c>
       <c r="AG7" t="n">
-        <v>822</v>
+        <v>875</v>
       </c>
       <c r="AH7" t="n">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="AI7" t="n">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="AJ7" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AK7" t="n">
         <v>22</v>
       </c>
       <c r="AL7" t="n">
-        <v>44</v>
+        <v>43.137254901961</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
@@ -2926,13 +2926,13 @@
         <v>18</v>
       </c>
       <c r="AP7" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AQ7" t="n">
         <v>5</v>
       </c>
       <c r="AR7" t="n">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="AS7" t="n">
         <v>19</v>
@@ -2959,31 +2959,31 @@
         <v>60</v>
       </c>
       <c r="BA7" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="BB7" t="n">
-        <v>63.74269005848</v>
+        <v>64.804469273743</v>
       </c>
       <c r="BC7" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="BD7" t="n">
-        <v>65.30612244898001</v>
+        <v>66.447368421053</v>
       </c>
       <c r="BE7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BF7" t="n">
-        <v>54.166666666667</v>
+        <v>55.555555555556</v>
       </c>
       <c r="BG7" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="BH7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BI7" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>6</v>
       </c>
       <c r="BO7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>137.3</v>
+        <v>144.3</v>
       </c>
       <c r="BR7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS7" t="n">
         <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>9</v>
       </c>
       <c r="CC7" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD7" t="n">
         <v>15</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CK7" t="n">
         <v>2</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="CR7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CS7" t="n">
         <v>25</v>
@@ -3097,10 +3097,10 @@
         <v>2</v>
       </c>
       <c r="CU7" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CV7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CW7" t="n">
         <v>0</v>
@@ -3112,13 +3112,13 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="DA7" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="DB7" t="n">
-        <v>62.222222222222</v>
+        <v>64.583333333333</v>
       </c>
       <c r="DC7" t="n">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="DG7" t="n">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         <v>190883</v>
       </c>
       <c r="E8" t="n">
-        <v>7.3</v>
+        <v>7.275</v>
       </c>
       <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="n">
         <v>3</v>
       </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
       <c r="H8" t="n">
-        <v>188</v>
+        <v>269</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2439</v>
+        <v>0.3003</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N8" t="n">
         <v>2</v>
@@ -3237,10 +3237,10 @@
         <v>1</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.4206251</v>
+        <v>0.468809</v>
       </c>
       <c r="AB8" t="n">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="AC8" t="n">
         <v>1</v>
@@ -3249,55 +3249,55 @@
         <v>5</v>
       </c>
       <c r="AE8" t="n">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="AF8" t="n">
-        <v>96.753246753247</v>
+        <v>96.51741293532299</v>
       </c>
       <c r="AG8" t="n">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="n">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="AJ8" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AL8" t="n">
-        <v>93.75</v>
+        <v>95.652173913043</v>
       </c>
       <c r="AM8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>26.666666666667</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="n">
         <v>3</v>
       </c>
-      <c r="AN8" t="n">
-        <v>23.076923076923</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>2</v>
-      </c>
       <c r="AQ8" t="n">
         <v>1</v>
       </c>
       <c r="AR8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
@@ -3315,31 +3315,31 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB8" t="n">
-        <v>31.25</v>
+        <v>38.095238095238</v>
       </c>
       <c r="BC8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD8" t="n">
-        <v>35.714285714286</v>
+        <v>38.888888888889</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BG8" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BH8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
@@ -3357,22 +3357,22 @@
         <v>1</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>21.9</v>
+        <v>29.1</v>
       </c>
       <c r="BR8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS8" t="n">
         <v>1</v>
       </c>
       <c r="BT8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>1</v>
       </c>
       <c r="CA8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CB8" t="n">
         <v>1</v>
       </c>
       <c r="CC8" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="CD8" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
@@ -3450,11 +3450,11 @@
         <v>3</v>
       </c>
       <c r="CT8" t="n">
+        <v>15</v>
+      </c>
+      <c r="CU8" t="n">
         <v>13</v>
       </c>
-      <c r="CU8" t="n">
-        <v>11</v>
-      </c>
       <c r="CV8" t="n">
         <v>2</v>
       </c>
@@ -3468,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="DA8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB8" t="n">
-        <v>50</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="DG8" t="n">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3527,16 +3527,16 @@
         <v>1195241</v>
       </c>
       <c r="E9" t="n">
-        <v>6.8571428571429</v>
+        <v>6.8272727272727</v>
       </c>
       <c r="F9" t="n">
+        <v>22</v>
+      </c>
+      <c r="G9" t="n">
         <v>21</v>
       </c>
-      <c r="G9" t="n">
-        <v>20</v>
-      </c>
       <c r="H9" t="n">
-        <v>1717</v>
+        <v>1784</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
@@ -3545,22 +3545,22 @@
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>1.5415</v>
+        <v>1.5783</v>
       </c>
       <c r="L9" t="n">
-        <v>858.5</v>
+        <v>892</v>
       </c>
       <c r="M9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>8.3333333333333</v>
+        <v>8</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -3593,49 +3593,49 @@
         <v>2</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.14224663</v>
+        <v>1.19852083</v>
       </c>
       <c r="AB9" t="n">
-        <v>909</v>
+        <v>933</v>
       </c>
       <c r="AC9" t="n">
         <v>4</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="AF9" t="n">
-        <v>85.179153094463</v>
+        <v>84.761904761905</v>
       </c>
       <c r="AG9" t="n">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="AH9" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AI9" t="n">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AJ9" t="n">
         <v>103</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>57.575757575758</v>
+        <v>57.142857142857</v>
       </c>
       <c r="AM9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN9" t="n">
-        <v>12.121212121212</v>
+        <v>14.285714285714</v>
       </c>
       <c r="AO9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP9" t="n">
         <v>53</v>
@@ -3644,13 +3644,13 @@
         <v>7</v>
       </c>
       <c r="AR9" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AS9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU9" t="n">
         <v>6</v>
@@ -3671,28 +3671,28 @@
         <v>33.333333333333</v>
       </c>
       <c r="BA9" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BB9" t="n">
-        <v>57.232704402516</v>
+        <v>56.441717791411</v>
       </c>
       <c r="BC9" t="n">
         <v>83</v>
       </c>
       <c r="BD9" t="n">
-        <v>59.712230215827</v>
+        <v>58.450704225352</v>
       </c>
       <c r="BE9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF9" t="n">
-        <v>40</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BG9" t="n">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="BH9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BI9" t="n">
         <v>26</v>
@@ -3713,22 +3713,22 @@
         <v>3</v>
       </c>
       <c r="BO9" t="n">
+        <v>24</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="BR9" t="n">
         <v>22</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>144</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>21</v>
       </c>
       <c r="BS9" t="n">
         <v>4</v>
       </c>
       <c r="BT9" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CA9" t="n">
         <v>13</v>
@@ -3755,29 +3755,29 @@
         <v>10</v>
       </c>
       <c r="CC9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CD9" t="n">
+        <v>23</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="n">
         <v>22</v>
       </c>
-      <c r="CE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ9" t="n">
-        <v>20</v>
-      </c>
       <c r="CK9" t="n">
         <v>2</v>
       </c>
@@ -3800,16 +3800,16 @@
         <v>0</v>
       </c>
       <c r="CR9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CS9" t="n">
         <v>15</v>
       </c>
       <c r="CT9" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CU9" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="CV9" t="n">
         <v>12</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="DA9" t="n">
         <v>35</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="DG9" t="n">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>1172936</v>
       </c>
       <c r="E10" t="n">
-        <v>6.655</v>
+        <v>6.6285714285714</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" t="n">
-        <v>1409</v>
+        <v>1484</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>2.3796</v>
       </c>
       <c r="L10" t="n">
-        <v>704.5</v>
+        <v>742</v>
       </c>
       <c r="M10" t="n">
         <v>28</v>
@@ -3949,10 +3949,10 @@
         <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.06882977</v>
+        <v>2.07558979</v>
       </c>
       <c r="AB10" t="n">
-        <v>754</v>
+        <v>787</v>
       </c>
       <c r="AC10" t="n">
         <v>4</v>
@@ -3961,28 +3961,28 @@
         <v>18</v>
       </c>
       <c r="AE10" t="n">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="AF10" t="n">
-        <v>75.478927203065</v>
+        <v>74.863387978142</v>
       </c>
       <c r="AG10" t="n">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="AH10" t="n">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="AI10" t="n">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AJ10" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AK10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>52.631578947368</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
         <v>6</v>
@@ -3991,16 +3991,16 @@
         <v>27.272727272727</v>
       </c>
       <c r="AO10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ10" t="n">
         <v>6</v>
       </c>
       <c r="AR10" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AS10" t="n">
         <v>17</v>
@@ -4027,31 +4027,31 @@
         <v>36</v>
       </c>
       <c r="BA10" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BB10" t="n">
-        <v>43.243243243243</v>
+        <v>43.421052631579</v>
       </c>
       <c r="BC10" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="BD10" t="n">
-        <v>44.067796610169</v>
+        <v>44.628099173554</v>
       </c>
       <c r="BE10" t="n">
         <v>12</v>
       </c>
       <c r="BF10" t="n">
-        <v>40</v>
+        <v>38.709677419355</v>
       </c>
       <c r="BG10" t="n">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="BH10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BI10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BJ10" t="n">
         <v>4</v>
@@ -4069,22 +4069,22 @@
         <v>3</v>
       </c>
       <c r="BO10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>133.1</v>
+        <v>139.2</v>
       </c>
       <c r="BR10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS10" t="n">
         <v>3</v>
       </c>
       <c r="BT10" t="n">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="BU10" t="n">
         <v>1</v>
@@ -4111,10 +4111,10 @@
         <v>19</v>
       </c>
       <c r="CC10" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="CD10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CK10" t="n">
         <v>2</v>
@@ -4165,10 +4165,10 @@
         <v>22</v>
       </c>
       <c r="CU10" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="CV10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="DA10" t="n">
         <v>18</v>
       </c>
       <c r="DB10" t="n">
-        <v>62.068965517241</v>
+        <v>60</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="DG10" t="n">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4593,16 +4593,16 @@
         <v>794373</v>
       </c>
       <c r="E12" t="n">
-        <v>6.665</v>
+        <v>6.6666666666667</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" t="n">
-        <v>1725</v>
+        <v>1815</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -4659,64 +4659,64 @@
         <v>3</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.9584642799999999</v>
+        <v>1.13380828</v>
       </c>
       <c r="AB12" t="n">
-        <v>1317</v>
+        <v>1389</v>
       </c>
       <c r="AC12" t="n">
         <v>3</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>822</v>
+        <v>871</v>
       </c>
       <c r="AF12" t="n">
-        <v>87.35387885228501</v>
+        <v>87.274549098196</v>
       </c>
       <c r="AG12" t="n">
-        <v>941</v>
+        <v>998</v>
       </c>
       <c r="AH12" t="n">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="AI12" t="n">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="AJ12" t="n">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="AK12" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="n">
-        <v>49.350649350649</v>
+        <v>49.382716049383</v>
       </c>
       <c r="AM12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN12" t="n">
-        <v>17.241379310345</v>
+        <v>21.875</v>
       </c>
       <c r="AO12" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AP12" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AQ12" t="n">
         <v>5</v>
       </c>
       <c r="AR12" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AS12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT12" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU12" t="n">
         <v>1</v>
@@ -4737,25 +4737,25 @@
         <v>40</v>
       </c>
       <c r="BA12" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="BB12" t="n">
-        <v>54.838709677419</v>
+        <v>55.384615384615</v>
       </c>
       <c r="BC12" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BD12" t="n">
-        <v>53.763440860215</v>
+        <v>53.125</v>
       </c>
       <c r="BE12" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BF12" t="n">
-        <v>58.064516129032</v>
+        <v>61.764705882353</v>
       </c>
       <c r="BG12" t="n">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="BH12" t="n">
         <v>27</v>
@@ -4779,22 +4779,22 @@
         <v>6</v>
       </c>
       <c r="BO12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>133.3</v>
+        <v>140</v>
       </c>
       <c r="BR12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS12" t="n">
         <v>3</v>
       </c>
       <c r="BT12" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4818,13 +4818,13 @@
         <v>7</v>
       </c>
       <c r="CB12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CC12" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="CD12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CK12" t="n">
         <v>2</v>
@@ -4866,16 +4866,16 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CS12" t="n">
         <v>5</v>
       </c>
       <c r="CT12" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="CU12" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="CV12" t="n">
         <v>13</v>
@@ -4890,13 +4890,13 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="DA12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="DB12" t="n">
-        <v>75.75757575757601</v>
+        <v>76.470588235294</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4908,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="DG12" t="n">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -4949,16 +4949,16 @@
         <v>1049538</v>
       </c>
       <c r="E13" t="n">
-        <v>7.04</v>
+        <v>7.052380952381</v>
       </c>
       <c r="F13" t="n">
+        <v>21</v>
+      </c>
+      <c r="G13" t="n">
         <v>20</v>
       </c>
-      <c r="G13" t="n">
-        <v>19</v>
-      </c>
       <c r="H13" t="n">
-        <v>1684</v>
+        <v>1774</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -4967,88 +4967,88 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1322</v>
+        <v>0.159</v>
       </c>
       <c r="L13" t="n">
-        <v>1684</v>
+        <v>1774</v>
       </c>
       <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.10063024</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1205</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
         <v>3</v>
       </c>
-      <c r="N13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.09034944</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1125</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>2</v>
-      </c>
       <c r="AE13" t="n">
-        <v>788</v>
+        <v>852</v>
       </c>
       <c r="AF13" t="n">
-        <v>90.88811995386401</v>
+        <v>91.22055674518199</v>
       </c>
       <c r="AG13" t="n">
-        <v>867</v>
+        <v>934</v>
       </c>
       <c r="AH13" t="n">
-        <v>625</v>
+        <v>661</v>
       </c>
       <c r="AI13" t="n">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AL13" t="n">
-        <v>41.176470588235</v>
+        <v>43.055555555556</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
@@ -5057,22 +5057,22 @@
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP13" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AQ13" t="n">
         <v>1</v>
       </c>
       <c r="AR13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AS13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT13" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -5093,31 +5093,31 @@
         <v>60</v>
       </c>
       <c r="BA13" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="BB13" t="n">
-        <v>60.526315789474</v>
+        <v>60.975609756098</v>
       </c>
       <c r="BC13" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="BD13" t="n">
-        <v>69.811320754717</v>
+        <v>69.491525423729</v>
       </c>
       <c r="BE13" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BF13" t="n">
-        <v>52.459016393443</v>
+        <v>53.125</v>
       </c>
       <c r="BG13" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="BH13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
@@ -5135,22 +5135,22 @@
         <v>8</v>
       </c>
       <c r="BO13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>140.8</v>
+        <v>148.1</v>
       </c>
       <c r="BR13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS13" t="n">
         <v>1</v>
       </c>
       <c r="BT13" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5171,35 +5171,35 @@
         <v>3</v>
       </c>
       <c r="CA13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB13" t="n">
         <v>0</v>
       </c>
       <c r="CC13" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="CD13" t="n">
+        <v>20</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="n">
         <v>18</v>
       </c>
-      <c r="CE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ13" t="n">
-        <v>16</v>
-      </c>
       <c r="CK13" t="n">
         <v>2</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="CR13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CS13" t="n">
         <v>5</v>
@@ -5231,10 +5231,10 @@
         <v>2</v>
       </c>
       <c r="CU13" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="CV13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CW13" t="n">
         <v>0</v>
@@ -5246,13 +5246,13 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="DA13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="DB13" t="n">
-        <v>67.741935483871</v>
+        <v>67.64705882352899</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5264,10 +5264,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>651</v>
+        <v>689</v>
       </c>
       <c r="DG13" t="n">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="DH13" t="n">
         <v>3</v>
@@ -5305,16 +5305,16 @@
         <v>1170532</v>
       </c>
       <c r="E14" t="n">
-        <v>6.63</v>
+        <v>6.5904761904762</v>
       </c>
       <c r="F14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H14" t="n">
-        <v>1431</v>
+        <v>1498</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5323,13 +5323,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8203</v>
+        <v>0.8819</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N14" t="n">
         <v>3</v>
@@ -5371,10 +5371,10 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.83189185</v>
+        <v>0.8369366</v>
       </c>
       <c r="AB14" t="n">
-        <v>959</v>
+        <v>1008</v>
       </c>
       <c r="AC14" t="n">
         <v>1</v>
@@ -5383,28 +5383,28 @@
         <v>10</v>
       </c>
       <c r="AE14" t="n">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="AF14" t="n">
-        <v>82.30769230769199</v>
+        <v>82.64014466546099</v>
       </c>
       <c r="AG14" t="n">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="AH14" t="n">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="AI14" t="n">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AJ14" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AK14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL14" t="n">
-        <v>40</v>
+        <v>40.740740740741</v>
       </c>
       <c r="AM14" t="n">
         <v>7</v>
@@ -5413,7 +5413,7 @@
         <v>17.948717948718</v>
       </c>
       <c r="AO14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP14" t="n">
         <v>44</v>
@@ -5422,16 +5422,16 @@
         <v>2</v>
       </c>
       <c r="AR14" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AS14" t="n">
         <v>6</v>
       </c>
       <c r="AT14" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AU14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV14" t="n">
         <v>1</v>
@@ -5446,19 +5446,19 @@
         <v>7</v>
       </c>
       <c r="AZ14" t="n">
-        <v>35</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BA14" t="n">
         <v>89</v>
       </c>
       <c r="BB14" t="n">
-        <v>57.792207792208</v>
+        <v>56.687898089172</v>
       </c>
       <c r="BC14" t="n">
         <v>71</v>
       </c>
       <c r="BD14" t="n">
-        <v>56.8</v>
+        <v>55.46875</v>
       </c>
       <c r="BE14" t="n">
         <v>18</v>
@@ -5467,7 +5467,7 @@
         <v>62.068965517241</v>
       </c>
       <c r="BG14" t="n">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="BH14" t="n">
         <v>20</v>
@@ -5491,70 +5491,70 @@
         <v>3</v>
       </c>
       <c r="BO14" t="n">
+        <v>24</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>138.4</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>21</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>96</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>19</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>25</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>13</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="n">
         <v>22</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>20</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>92</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>6</v>
-      </c>
-      <c r="CA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB14" t="n">
-        <v>17</v>
-      </c>
-      <c r="CC14" t="n">
-        <v>24</v>
-      </c>
-      <c r="CD14" t="n">
-        <v>12</v>
-      </c>
-      <c r="CE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ14" t="n">
-        <v>20</v>
       </c>
       <c r="CK14" t="n">
         <v>2</v>
@@ -5581,13 +5581,13 @@
         <v>10</v>
       </c>
       <c r="CS14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CT14" t="n">
         <v>39</v>
       </c>
       <c r="CU14" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="CV14" t="n">
         <v>11</v>
@@ -5602,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="DA14" t="n">
         <v>27</v>
@@ -5620,10 +5620,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="DG14" t="n">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -5661,16 +5661,16 @@
         <v>1462778</v>
       </c>
       <c r="E15" t="n">
-        <v>6.8631578947368</v>
+        <v>6.85</v>
       </c>
       <c r="F15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H15" t="n">
-        <v>950</v>
+        <v>1040</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -5679,13 +5679,13 @@
         <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6067</v>
+        <v>0.6898</v>
       </c>
       <c r="L15" t="n">
-        <v>475</v>
+        <v>520</v>
       </c>
       <c r="M15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N15" t="n">
         <v>5</v>
@@ -5694,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>20</v>
+        <v>16.666666666667</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -5727,68 +5727,68 @@
         <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.22379381</v>
+        <v>1.37833181</v>
       </c>
       <c r="AB15" t="n">
-        <v>574</v>
+        <v>607</v>
       </c>
       <c r="AC15" t="n">
         <v>4</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="AF15" t="n">
-        <v>76.576576576577</v>
+        <v>76.420454545455</v>
       </c>
       <c r="AG15" t="n">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="AH15" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AI15" t="n">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="AJ15" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="AK15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>48.275862068966</v>
+        <v>50</v>
       </c>
       <c r="AM15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN15" t="n">
-        <v>18.867924528302</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
         <v>8</v>
       </c>
       <c r="AP15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AU15" t="n">
         <v>5</v>
       </c>
-      <c r="AR15" t="n">
-        <v>37</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>4</v>
-      </c>
       <c r="AV15" t="n">
         <v>0</v>
       </c>
@@ -5799,34 +5799,34 @@
         <v>0</v>
       </c>
       <c r="AY15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ15" t="n">
-        <v>40</v>
+        <v>40.740740740741</v>
       </c>
       <c r="BA15" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="BB15" t="n">
-        <v>52.136752136752</v>
+        <v>51.5625</v>
       </c>
       <c r="BC15" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="BD15" t="n">
-        <v>50</v>
+        <v>49.494949494949</v>
       </c>
       <c r="BE15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BF15" t="n">
-        <v>59.259259259259</v>
+        <v>58.620689655172</v>
       </c>
       <c r="BG15" t="n">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="BH15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BI15" t="n">
         <v>9</v>
@@ -5847,28 +5847,28 @@
         <v>2</v>
       </c>
       <c r="BO15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>130.4</v>
+        <v>137</v>
       </c>
       <c r="BR15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS15" t="n">
         <v>3</v>
       </c>
       <c r="BT15" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -5880,19 +5880,19 @@
         <v>1</v>
       </c>
       <c r="BZ15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CA15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CB15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CC15" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="CD15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
@@ -5910,44 +5910,44 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
+        <v>14</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>14</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>27</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>55</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>62</v>
+      </c>
+      <c r="CV15" t="n">
         <v>12</v>
       </c>
-      <c r="CK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR15" t="n">
-        <v>12</v>
-      </c>
-      <c r="CS15" t="n">
-        <v>25</v>
-      </c>
-      <c r="CT15" t="n">
-        <v>53</v>
-      </c>
-      <c r="CU15" t="n">
-        <v>56</v>
-      </c>
-      <c r="CV15" t="n">
-        <v>11</v>
-      </c>
       <c r="CW15" t="n">
         <v>0</v>
       </c>
@@ -5958,13 +5958,13 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="DA15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="DB15" t="n">
-        <v>53.846153846154</v>
+        <v>55.172413793103</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5976,16 +5976,16 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="DG15" t="n">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
       </c>
       <c r="DI15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DJ15" t="n">
         <v>2145486</v>
@@ -6017,16 +6017,16 @@
         <v>363042</v>
       </c>
       <c r="E16" t="n">
-        <v>6.852380952381</v>
+        <v>6.8363636363636</v>
       </c>
       <c r="F16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" t="n">
-        <v>1890</v>
+        <v>1980</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -6035,13 +6035,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2837</v>
+        <v>0.3476</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
@@ -6083,10 +6083,10 @@
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.76208704</v>
+        <v>0.82980334</v>
       </c>
       <c r="AB16" t="n">
-        <v>1479</v>
+        <v>1562</v>
       </c>
       <c r="AC16" t="n">
         <v>2</v>
@@ -6095,37 +6095,37 @@
         <v>5</v>
       </c>
       <c r="AE16" t="n">
-        <v>1064</v>
+        <v>1126</v>
       </c>
       <c r="AF16" t="n">
-        <v>87.716405605936</v>
+        <v>87.763055339049</v>
       </c>
       <c r="AG16" t="n">
-        <v>1213</v>
+        <v>1283</v>
       </c>
       <c r="AH16" t="n">
-        <v>844</v>
+        <v>881</v>
       </c>
       <c r="AI16" t="n">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="AJ16" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="AK16" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AL16" t="n">
-        <v>46</v>
+        <v>45.161290322581</v>
       </c>
       <c r="AM16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN16" t="n">
-        <v>33.333333333333</v>
+        <v>42.857142857143</v>
       </c>
       <c r="AO16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP16" t="n">
         <v>26</v>
@@ -6134,13 +6134,13 @@
         <v>1</v>
       </c>
       <c r="AR16" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AS16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT16" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AU16" t="n">
         <v>1</v>
@@ -6161,25 +6161,25 @@
         <v>80</v>
       </c>
       <c r="BA16" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BB16" t="n">
-        <v>60.952380952381</v>
+        <v>60.185185185185</v>
       </c>
       <c r="BC16" t="n">
         <v>40</v>
       </c>
       <c r="BD16" t="n">
-        <v>60.606060606061</v>
+        <v>59.701492537313</v>
       </c>
       <c r="BE16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BF16" t="n">
-        <v>61.538461538462</v>
+        <v>60.975609756098</v>
       </c>
       <c r="BG16" t="n">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="BH16" t="n">
         <v>13</v>
@@ -6203,40 +6203,40 @@
         <v>8</v>
       </c>
       <c r="BO16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BP16" t="n">
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>143.9</v>
+        <v>150.4</v>
       </c>
       <c r="BR16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS16" t="n">
         <v>1</v>
       </c>
       <c r="BT16" t="n">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
       </c>
       <c r="BV16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ16" t="n">
         <v>3</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>2</v>
       </c>
       <c r="CA16" t="n">
         <v>3</v>
@@ -6245,10 +6245,10 @@
         <v>3</v>
       </c>
       <c r="CC16" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="CD16" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CK16" t="n">
         <v>2</v>
@@ -6296,13 +6296,13 @@
         <v>5</v>
       </c>
       <c r="CT16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CU16" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="CV16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CW16" t="n">
         <v>0</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="DA16" t="n">
         <v>13</v>
@@ -6332,13 +6332,13 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>898</v>
+        <v>941</v>
       </c>
       <c r="DG16" t="n">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="DH16" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="DI16" t="n">
         <v>10</v>
@@ -6729,16 +6729,16 @@
         <v>1506932</v>
       </c>
       <c r="E18" t="n">
-        <v>6.6230769230769</v>
+        <v>6.6214285714286</v>
       </c>
       <c r="F18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -6795,10 +6795,10 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.1136121</v>
+        <v>0.11421738</v>
       </c>
       <c r="AB18" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -6807,19 +6807,19 @@
         <v>3</v>
       </c>
       <c r="AE18" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AF18" t="n">
-        <v>79.432624113475</v>
+        <v>79.452054794521</v>
       </c>
       <c r="AG18" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AH18" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AI18" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AJ18" t="n">
         <v>23</v>
@@ -6891,7 +6891,7 @@
         <v>60</v>
       </c>
       <c r="BG18" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BH18" t="n">
         <v>5</v>
@@ -6921,16 +6921,16 @@
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>86.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="BR18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS18" t="n">
         <v>0</v>
       </c>
       <c r="BT18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -7044,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="DG18" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="DH18" t="n">
         <v>0</v>
@@ -7439,16 +7439,16 @@
         <v>170129</v>
       </c>
       <c r="E20" t="n">
-        <v>6.6916666666667</v>
+        <v>6.7153846153846</v>
       </c>
       <c r="F20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" t="n">
         <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7505,10 +7505,10 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.28333093</v>
+        <v>0.28810938</v>
       </c>
       <c r="AB20" t="n">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="AC20" t="n">
         <v>1</v>
@@ -7517,22 +7517,22 @@
         <v>3</v>
       </c>
       <c r="AE20" t="n">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AF20" t="n">
-        <v>76.60550458715601</v>
+        <v>77.826086956522</v>
       </c>
       <c r="AG20" t="n">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="AH20" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI20" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AJ20" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AK20" t="n">
         <v>11</v>
@@ -7550,19 +7550,19 @@
         <v>7</v>
       </c>
       <c r="AP20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ20" t="n">
         <v>1</v>
       </c>
       <c r="AR20" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AS20" t="n">
         <v>8</v>
       </c>
       <c r="AT20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU20" t="n">
         <v>2</v>
@@ -7583,16 +7583,16 @@
         <v>42.857142857143</v>
       </c>
       <c r="BA20" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>50.980392156863</v>
+        <v>52.830188679245</v>
       </c>
       <c r="BC20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD20" t="n">
-        <v>51.351351351351</v>
+        <v>53.846153846154</v>
       </c>
       <c r="BE20" t="n">
         <v>7</v>
@@ -7607,7 +7607,7 @@
         <v>4</v>
       </c>
       <c r="BI20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ20" t="n">
         <v>0</v>
@@ -7631,10 +7631,10 @@
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>80.3</v>
+        <v>87.3</v>
       </c>
       <c r="BR20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS20" t="n">
         <v>0</v>
@@ -7667,10 +7667,10 @@
         <v>2</v>
       </c>
       <c r="CC20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CD20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -7739,10 +7739,10 @@
         <v>21</v>
       </c>
       <c r="DA20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DB20" t="n">
-        <v>54.545454545455</v>
+        <v>58.333333333333</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7754,10 +7754,10 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="DG20" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
@@ -8149,16 +8149,16 @@
         <v>867299</v>
       </c>
       <c r="E22" t="n">
-        <v>7.3736842105263</v>
+        <v>7.295</v>
       </c>
       <c r="F22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>1710</v>
+        <v>1800</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.0103834</v>
+        <v>0.01052004</v>
       </c>
       <c r="AB22" t="n">
-        <v>810</v>
+        <v>832</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -8225,28 +8225,28 @@
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="AF22" t="n">
-        <v>69.068541300527</v>
+        <v>69.335604770017</v>
       </c>
       <c r="AG22" t="n">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="AH22" t="n">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="AI22" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AJ22" t="n">
         <v>7</v>
       </c>
       <c r="AK22" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AL22" t="n">
-        <v>33.464566929134</v>
+        <v>33.590733590734</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -8264,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="AS22" t="n">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="AV22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW22" t="n">
         <v>1</v>
@@ -8309,7 +8309,7 @@
         <v>83.333333333333</v>
       </c>
       <c r="BG22" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="BH22" t="n">
         <v>1</v>
@@ -8333,22 +8333,22 @@
         <v>8</v>
       </c>
       <c r="BO22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BP22" t="n">
         <v>2</v>
       </c>
       <c r="BQ22" t="n">
-        <v>140.1</v>
+        <v>145.9</v>
       </c>
       <c r="BR22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS22" t="n">
         <v>0</v>
       </c>
       <c r="BT22" t="n">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
@@ -8396,7 +8396,7 @@
         <v>23</v>
       </c>
       <c r="CJ22" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CK22" t="n">
         <v>1</v>
@@ -8444,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="DA22" t="n">
         <v>1</v>
@@ -8462,13 +8462,13 @@
         <v>18</v>
       </c>
       <c r="DF22" t="n">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="DG22" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="DH22" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="DI22" t="n">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="DL22" t="n">
-        <v>9.785</v>
+        <v>8.668799999999999</v>
       </c>
     </row>
     <row r="23">
